--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,468 +512,638 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>36.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>011462</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>东吴兴享成长混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>36.10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>217010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009695</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009696</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001325</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001326</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001869</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商制造业转型灵活配置混合A</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004569</t>
+          <t>001869</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商制造业转型灵活配置混合C</t>
+          <t>招商制造业转型灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.67</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.69</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.52</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>008456</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>招商瑞阳股债配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>004569</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>招商制造业转型灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002657</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合A</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002658</t>
+          <t>580008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安裕灵活配置混合C</t>
+          <t>东吴新产业精选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>002657</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>招商安裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>004932</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>招商丰拓灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>008457</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>招商瑞阳股债配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001325</t>
+          <t>001327</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华弘和灵活配置混合A</t>
+          <t>鹏华弘华灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24.60</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001326</t>
+          <t>001331</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华弘和灵活配置混合C</t>
+          <t>鹏华弘信灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24.60</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001327</t>
+          <t>003142</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华弘华灵活配置混合A</t>
+          <t>鹏华弘达灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24.63</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001328</t>
+          <t>001325</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华弘华灵活配置混合C</t>
+          <t>鹏华弘和灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24.63</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001331</t>
+          <t>003663</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华弘信灵活配置混合A</t>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001332</t>
+          <t>003780</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏华弘信灵活配置混合C</t>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>004933</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>招商丰拓灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1640,15 +2050,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>7.82</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>580006</t>
+          <t>001328</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东吴新经济混合</t>
+          <t>鹏华弘华灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>580008</t>
+          <t>003143</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东吴新产业精选股票A</t>
+          <t>鹏华弘达灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87.47</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>001326</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>鹏华弘和灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003142</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华弘达灵活配置混合A</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23.34</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003143</t>
+          <t>002658</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鹏华弘达灵活配置混合C</t>
+          <t>招商安裕灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23.34</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>001332</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>鹏华弘信灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>580006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>东吴新经济混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>003663</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22.33</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1910,25 +2420,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>003780</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鹏华兴悦定期开放灵活配置混合</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008456</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合A</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008457</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>招商瑞阳股债配置混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>004932</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合A</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004933</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>招商丰拓灵活配置混合C</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2607,4 +2608,2186 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰融丰外延增长灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000526</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002059</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>36.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4790,4 +4791,1160 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8926</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5947,4 +5948,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5956,7 +5957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5967,17 +5968,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5987,14 +6008,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.24</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6003,14 +6046,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.62</v>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6019,14 +6084,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.61</v>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6035,13 +6122,2391 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5804</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5258</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516590</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达中证智能电动汽车交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8405,7 +8406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8416,17 +8417,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8436,14 +8457,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.11</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8452,14 +8495,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.24</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8468,14 +8533,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.62</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8536</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8484,14 +8571,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.61</v>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8500,13 +8609,3927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1442</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1258</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9933</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7866</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5725</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4494</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>43.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12412,7 +12413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12423,17 +12424,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12443,14 +12464,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>104</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.78</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -12459,14 +12502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.11</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12475,14 +12540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.24</v>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -12491,14 +12578,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.62</v>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2927</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -12507,14 +12616,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.61</v>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -12523,13 +12654,3673 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0571</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7551</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4979</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2856</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>63.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015211</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015212</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商安鼎平衡1年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.72</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>24.48</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>30.78</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>19.11</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>9.24</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>11.62</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>4.61</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.72</v>
       </c>
     </row>
@@ -600,6 +617,3172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商金安成长严选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9327</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>240002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝宝康配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014119</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014120</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015361</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>36.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4373,7 +7556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8379,7 +11562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10827,7 +14010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11983,7 +15166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14165,7 +17348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15627,7 +18810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
+++ b/数据整理/stocks/A股/创业板/300776-帝尔激光.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>24.48</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n">
-        <v>30.78</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>19.11</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>9.24</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>11.62</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>4.61</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1336,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016098</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴兴弘一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3782,7 +5773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7556,7 +9547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11562,7 +13553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14010,7 +16001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15166,7 +17157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17348,7 +19339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18808,706 +20799,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010330</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7965</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009695</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3678</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>217010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2873</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2316</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2311</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.92</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1935</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1158</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1111</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009696</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0987</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0815</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001325</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001326</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.32</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>